--- a/test/测试一览表.xlsx
+++ b/test/测试一览表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenjie666\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\学习\大三下\软件工程\第1次作业\repo\wordListBuaa\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0BAFBA-4230-4AC8-950F-872935D399E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F84134-C263-477E-A716-495035842D47}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0620AC48-BE0A-48AA-9A14-4726D4E04155}"/>
+    <workbookView xWindow="2370" yWindow="2055" windowWidth="21600" windowHeight="11370" xr2:uid="{0620AC48-BE0A-48AA-9A14-4726D4E04155}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="6" r:id="rId1"/>
@@ -669,7 +669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +694,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -865,116 +871,116 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE87883-11EF-4CF1-88FE-D21F434FBE69}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1302,8 +1308,8 @@
     <col min="2" max="2" width="19.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17" style="7" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1321,552 +1327,552 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="40" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="33" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="18" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="39"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="4" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="10" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="10" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="10" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="10" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="14"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
-      <c r="D36" s="18"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="18"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1887,6 +1893,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="A17:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="E17:E35"/>
@@ -1903,13 +1916,6 @@
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="E9:E13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
